--- a/Data Files/excel file/Verify Get Users.xlsx
+++ b/Data Files/excel file/Verify Get Users.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
   <si>
     <t>apiKey</t>
   </si>
@@ -31,10 +31,16 @@
     <t>remark</t>
   </si>
   <si>
-    <t>Missing API key</t>
+    <t>Missing API key.</t>
   </si>
   <si>
     <t>Check authorization</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+  </si>
+  <si>
+    <t>Invalid API key.</t>
   </si>
   <si>
     <t>reqres-free-v1</t>
@@ -308,7 +314,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="3" max="3" width="16.5"/>
-    <col customWidth="1" min="4" max="5" width="36.5"/>
+    <col customWidth="1" min="4" max="4" width="11.63"/>
+    <col customWidth="1" min="5" max="5" width="36.5"/>
     <col customWidth="1" min="6" max="6" width="50.13"/>
   </cols>
   <sheetData>
@@ -348,33 +355,36 @@
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="2">
+        <v>1.0</v>
+      </c>
       <c r="C3" s="2">
+        <v>401.0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
         <v>200.0</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D4" s="1">
         <v>1.0</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="C4" s="2">
-        <v>401.0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>1.0</v>
@@ -386,12 +396,12 @@
         <v>1.0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2">
         <v>2.0</v>
@@ -403,12 +413,12 @@
         <v>2.0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>-1.0</v>
@@ -420,15 +430,15 @@
         <v>-1.0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="2">
         <v>200.0</v>
@@ -437,7 +447,7 @@
         <v>1.0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
